--- a/datasets/tree_DBH_hollows/input/Plot 12.xlsx
+++ b/datasets/tree_DBH_hollows/input/Plot 12.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickjolly/Desktop/tfn tree_hollows/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickjolly/Desktop/tfn/DataScienceProject/datasets/tree_DBH_hollows/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0420CE-CD0A-4B41-B69E-862439B1DB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEFDADF-8BB3-3548-8CAB-7E0835827C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8480" yWindow="500" windowWidth="17080" windowHeight="16220" xr2:uid="{20E0FF59-B469-6A45-9CF2-1F0580860A0E}"/>
   </bookViews>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBCAA0E-3E0F-044F-9F2D-06DBCE6934B6}">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="98" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="98" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1338,7 +1338,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
